--- a/material/translation/TermDefinitions/UDT.xlsx
+++ b/material/translation/TermDefinitions/UDT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihuedu.sharepoint.com/sites/--/Shared Documents/DE4A/WP3/XSDs/Ana Rosa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihuedu.sharepoint.com/sites/--/Shared Documents/DE4A/WP3/XSDs/Ana Rosa/Birth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="556" documentId="11_56ED86068E69D7C0E0B8355827D7BAD1553D7CB2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EBE4902-8A81-46A8-80A8-C17E05500EA0}"/>
+  <xr:revisionPtr revIDLastSave="564" documentId="11_56ED86068E69D7C0E0B8355827D7BAD1553D7CB2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A275D7E6-6131-4C29-848A-5D5C9A9C3522}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="es" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="35">
   <si>
     <t>Term</t>
   </si>
@@ -56,6 +56,36 @@
     <t>true</t>
   </si>
   <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>A character string (i.e. a finite set of characters), generally in the form of words of a language.</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>Language ID</t>
+  </si>
+  <si>
+    <t>The identifier of the language used in the content component.</t>
+  </si>
+  <si>
+    <t>Language Locale ID</t>
+  </si>
+  <si>
+    <t>The identification of the locale of the language.</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>One calendar day according the Gregorian calendar.</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
     <t>Term URI</t>
   </si>
   <si>
@@ -71,70 +101,46 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>UDT</t>
+  </si>
+  <si>
     <t>DE4A</t>
   </si>
   <si>
+    <t>UDT/Text</t>
+  </si>
+  <si>
+    <t>ccts-cct:TextType</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>It is the DateType from unqualified data types from UBL-2.3</t>
+  </si>
+  <si>
+    <t>UDT/Text/@LanguageID</t>
+  </si>
+  <si>
+    <t>xsd:language</t>
+  </si>
+  <si>
+    <t>UDT/Text/@LanguageLocaleID</t>
+  </si>
+  <si>
+    <t>xsd:normalizedString</t>
+  </si>
+  <si>
+    <t>UDT/Date</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
+  </si>
+  <si>
     <t>It is the identifier from Core Vocabularies (Core Vocabulary Aggregated Components)</t>
-  </si>
-  <si>
-    <t>It is the DateType from unqualified data types from UBL-2.3</t>
-  </si>
-  <si>
-    <t>UDT</t>
-  </si>
-  <si>
-    <t>UDT/Date</t>
-  </si>
-  <si>
-    <t>UDT/Text</t>
-  </si>
-  <si>
-    <t>ccts-cct:TextType</t>
-  </si>
-  <si>
-    <t>xsd:string</t>
-  </si>
-  <si>
-    <t>UDT/Text/@LanguageID</t>
-  </si>
-  <si>
-    <t>xsd:language</t>
-  </si>
-  <si>
-    <t>UDT/Text/@LanguageLocaleID</t>
-  </si>
-  <si>
-    <t>xsd:normalizedString</t>
-  </si>
-  <si>
-    <t>xsd:date</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Language ID</t>
-  </si>
-  <si>
-    <t>Language Locale ID</t>
-  </si>
-  <si>
-    <t>A character string (i.e. a finite set of characters), generally in the form of words of a language.</t>
-  </si>
-  <si>
-    <t>The identifier of the language used in the content component.</t>
-  </si>
-  <si>
-    <t>The identification of the locale of the language.</t>
-  </si>
-  <si>
-    <t>One calendar day according the Gregorian calendar.</t>
-  </si>
-  <si>
-    <t>00</t>
   </si>
 </sst>
 </file>
@@ -191,24 +197,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2366,9 +2367,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2378,374 +2381,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="str">
+      <c r="A2" t="str">
         <f>Terms!A2</f>
         <v>UDT</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" t="str">
         <f>Terms!A3</f>
         <v>UDT/Text</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="str">
+      <c r="A4" t="str">
         <f>Terms!A4</f>
         <v>UDT/Text/@LanguageID</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>29</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="str">
+      <c r="A5" t="str">
         <f>Terms!A5</f>
         <v>UDT/Text/@LanguageLocaleID</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>30</v>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="str">
+      <c r="A6" t="str">
         <f>Terms!A6</f>
         <v>UDT/Date</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>31</v>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7">
         <f>Terms!A7</f>
         <v>0</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="6"/>
+    <row r="30" spans="4:4" ht="58.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="4"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="4"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="8"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="4"/>
-      <c r="C60" s="7"/>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="5"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="4"/>
-      <c r="C61" s="6"/>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C61" s="4"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="2"/>
+      <c r="C63" s="4"/>
       <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2767,87 +2552,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3090,37 +2875,14 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{195027DE-B31D-4A5C-9F8C-7A1AA00AD228}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="4aa09831-7f3d-42ba-9b8c-49994d1626d2"/>
-    <ds:schemaRef ds:uri="387b4333-7bd0-482a-b673-9a586eb2ceee"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C5E43CB-778A-4566-936E-27FDECE977F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="387b4333-7bd0-482a-b673-9a586eb2ceee"/>
-    <ds:schemaRef ds:uri="4aa09831-7f3d-42ba-9b8c-49994d1626d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E29DF06B-9A9F-4F3F-8298-62841A49247C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/material/translation/TermDefinitions/UDT.xlsx
+++ b/material/translation/TermDefinitions/UDT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihuedu.sharepoint.com/sites/--/Shared Documents/DE4A/WP3/XSDs/Ana Rosa/Birth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="564" documentId="11_56ED86068E69D7C0E0B8355827D7BAD1553D7CB2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A275D7E6-6131-4C29-848A-5D5C9A9C3522}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2D0B9FB0-F355-4F0C-A411-6503D97B28EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6760849D-A6D3-41E7-B783-F61CA6CE4BC0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="64">
   <si>
     <t>Term</t>
   </si>
@@ -141,6 +141,93 @@
   </si>
   <si>
     <t>It is the identifier from Core Vocabularies (Core Vocabulary Aggregated Components)</t>
+  </si>
+  <si>
+    <t>UDT/Name</t>
+  </si>
+  <si>
+    <t>UDT/Identifier</t>
+  </si>
+  <si>
+    <t>ccts-cct:IdentifierType</t>
+  </si>
+  <si>
+    <t>UDT/Identifier/@schemeID</t>
+  </si>
+  <si>
+    <t>UDT/Identifier/@schemeName</t>
+  </si>
+  <si>
+    <t>UDT/Identifier/@schemeAgencyID</t>
+  </si>
+  <si>
+    <t>UDT/Identifier/@schemeAgencyName</t>
+  </si>
+  <si>
+    <t>UDT/Identifier/@schemeVersionID</t>
+  </si>
+  <si>
+    <t>UDT/Identifier/@schemeDataURI</t>
+  </si>
+  <si>
+    <t>xsd:anyURI</t>
+  </si>
+  <si>
+    <t>UDT/Identifier/@schemeURI</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>A character string to identify and distinguish uniquely, one instance of an object in an identification scheme from all other objects in the same scheme together with relevant supplementary information.</t>
+  </si>
+  <si>
+    <t>The identification of the identification scheme.</t>
+  </si>
+  <si>
+    <t>The name of the identification scheme.</t>
+  </si>
+  <si>
+    <t>Scheme ID</t>
+  </si>
+  <si>
+    <t>Scheme URI</t>
+  </si>
+  <si>
+    <t>Scheme Name</t>
+  </si>
+  <si>
+    <t>Scheme Agency ID</t>
+  </si>
+  <si>
+    <t>Scheme Version ID</t>
+  </si>
+  <si>
+    <t>Scheme Agency Name</t>
+  </si>
+  <si>
+    <t>Scheme Data URI</t>
+  </si>
+  <si>
+    <t>The identification of the agency that maintains the identification scheme.</t>
+  </si>
+  <si>
+    <t>The name of the agency that maintains the identification scheme.</t>
+  </si>
+  <si>
+    <t>The version of the identification scheme.</t>
+  </si>
+  <si>
+    <t>The Uniform Resource Identifier that identifies where the identification scheme data is located.</t>
+  </si>
+  <si>
+    <t>The Uniform Resource Identifier that identifies where the identification scheme is located.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>A character string that constitutes the distinctive designation of a person, place, thing or concept.</t>
   </si>
 </sst>
 </file>
@@ -628,36 +715,36 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="str">
         <f>Terms!A7</f>
-        <v>0</v>
+        <v>UDT/Name</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" t="str">
         <f>Terms!A8</f>
-        <v>0</v>
+        <v>UDT/Identifier</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="str">
         <f>Terms!A9</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeID</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="str">
         <f>Terms!A10</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeName</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
@@ -665,45 +752,45 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="str">
         <f>Terms!A11</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeAgencyID</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" t="str">
         <f>Terms!A12</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeAgencyName</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" t="str">
         <f>Terms!A13</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeVersionID</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" t="str">
         <f>Terms!A14</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeDataURI</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" t="str">
         <f>Terms!A15</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeURI</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1084,36 +1171,36 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="str">
         <f>Terms!A7</f>
-        <v>0</v>
+        <v>UDT/Name</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" t="str">
         <f>Terms!A8</f>
-        <v>0</v>
+        <v>UDT/Identifier</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="str">
         <f>Terms!A9</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeID</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="str">
         <f>Terms!A10</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeName</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
@@ -1121,45 +1208,45 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="str">
         <f>Terms!A11</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeAgencyID</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" t="str">
         <f>Terms!A12</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeAgencyName</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" t="str">
         <f>Terms!A13</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeVersionID</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" t="str">
         <f>Terms!A14</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeDataURI</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" t="str">
         <f>Terms!A15</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeURI</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1535,36 +1622,36 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="str">
         <f>Terms!A7</f>
-        <v>0</v>
+        <v>UDT/Name</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" t="str">
         <f>Terms!A8</f>
-        <v>0</v>
+        <v>UDT/Identifier</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="str">
         <f>Terms!A9</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeID</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="str">
         <f>Terms!A10</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeName</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
@@ -1572,45 +1659,45 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="str">
         <f>Terms!A11</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeAgencyID</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" t="str">
         <f>Terms!A12</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeAgencyName</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" t="str">
         <f>Terms!A13</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeVersionID</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" t="str">
         <f>Terms!A14</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeDataURI</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" t="str">
         <f>Terms!A15</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeURI</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1988,36 +2075,36 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="str">
         <f>Terms!A7</f>
-        <v>0</v>
+        <v>UDT/Name</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" t="str">
         <f>Terms!A8</f>
-        <v>0</v>
+        <v>UDT/Identifier</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="str">
         <f>Terms!A9</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeID</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="str">
         <f>Terms!A10</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeName</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
@@ -2025,45 +2112,45 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="str">
         <f>Terms!A11</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeAgencyID</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" t="str">
         <f>Terms!A12</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeAgencyName</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" t="str">
         <f>Terms!A13</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeVersionID</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" t="str">
         <f>Terms!A14</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeDataURI</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" t="str">
         <f>Terms!A15</f>
-        <v>0</v>
+        <v>UDT/Identifier/@schemeURI</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2369,14 +2456,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="57.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="96.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2473,9 +2560,138 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="str">
         <f>Terms!A7</f>
-        <v>0</v>
+        <v>UDT/Name</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>Terms!A8</f>
+        <v>UDT/Identifier</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>Terms!A9</f>
+        <v>UDT/Identifier/@schemeID</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>Terms!A10</f>
+        <v>UDT/Identifier/@schemeName</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>Terms!A11</f>
+        <v>UDT/Identifier/@schemeAgencyID</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>Terms!A12</f>
+        <v>UDT/Identifier/@schemeAgencyName</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f>Terms!A13</f>
+        <v>UDT/Identifier/@schemeVersionID</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f>Terms!A14</f>
+        <v>UDT/Identifier/@schemeDataURI</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>Terms!A15</f>
+        <v>UDT/Identifier/@schemeURI</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.3">
@@ -2539,14 +2755,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2635,9 +2851,135 @@
         <v>34</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{E0C8FC63-E3CD-4FEF-8AFA-589736C0539A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D15" xr:uid="{E0C8FC63-E3CD-4FEF-8AFA-589736C0539A}">
       <formula1>"00,01,10,11"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2647,12 +2989,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Έγγραφο" ma:contentTypeID="0x0101007E289342E878A3439E8711FFF848F32F" ma:contentTypeVersion="11" ma:contentTypeDescription="Δημιουργία νέου εγγράφου" ma:contentTypeScope="" ma:versionID="46ceb6b1ca17f648485ffad8d87a7461">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="387b4333-7bd0-482a-b673-9a586eb2ceee" xmlns:ns3="4aa09831-7f3d-42ba-9b8c-49994d1626d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a21b98261e948a646c8dae0c6b0aefd5" ns2:_="" ns3:_="">
     <xsd:import namespace="387b4333-7bd0-482a-b673-9a586eb2ceee"/>
@@ -2863,6 +3199,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2873,16 +3215,31 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E29DF06B-9A9F-4F3F-8298-62841A49247C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="387b4333-7bd0-482a-b673-9a586eb2ceee"/>
+    <ds:schemaRef ds:uri="4aa09831-7f3d-42ba-9b8c-49994d1626d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{195027DE-B31D-4A5C-9F8C-7A1AA00AD228}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E29DF06B-9A9F-4F3F-8298-62841A49247C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
